--- a/plannings.xlsx
+++ b/plannings.xlsx
@@ -1312,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I837"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A679" workbookViewId="0">
-      <selection activeCell="H688" sqref="H688"/>
+    <sheetView tabSelected="1" topLeftCell="A574" workbookViewId="0">
+      <selection activeCell="I588" sqref="I588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10685,7 +10685,7 @@
         <v>1</v>
       </c>
       <c r="I587" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.25">
@@ -10705,7 +10705,7 @@
         <v>1</v>
       </c>
       <c r="I588" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.25">
